--- a/TUGAS4/Tugas4.xlsx
+++ b/TUGAS4/Tugas4.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="68">
   <si>
     <t>1. Tabel kegiatan pelatihan</t>
   </si>
@@ -36,9 +36,6 @@
     <t>Terdapat 4 Tabel</t>
   </si>
   <si>
-    <t>tabel pelatihan</t>
-  </si>
-  <si>
     <t>Nama Kegiatan</t>
   </si>
   <si>
@@ -48,9 +45,6 @@
     <t>Lokasi</t>
   </si>
   <si>
-    <t>tabel pendaftaran</t>
-  </si>
-  <si>
     <t>Id_pendaftaran</t>
   </si>
   <si>
@@ -63,9 +57,6 @@
     <t>Email</t>
   </si>
   <si>
-    <t>tabel narasumber</t>
-  </si>
-  <si>
     <t>id_narasumber</t>
   </si>
   <si>
@@ -78,42 +69,18 @@
     <t>Materi pelatihan</t>
   </si>
   <si>
-    <t>tabel presensi peserta</t>
-  </si>
-  <si>
     <t>Id_kehadiran</t>
   </si>
   <si>
     <t>tgl presensi</t>
   </si>
   <si>
-    <t>waktu</t>
-  </si>
-  <si>
     <t>3NF</t>
   </si>
   <si>
-    <t>tabel detail pelatihan</t>
-  </si>
-  <si>
-    <t>Id_</t>
-  </si>
-  <si>
-    <t>Id Pendaftaran</t>
-  </si>
-  <si>
-    <t>Id Narasumber</t>
-  </si>
-  <si>
-    <t>Id pelatihan</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
-    <t>tabel status</t>
-  </si>
-  <si>
     <t>status</t>
   </si>
   <si>
@@ -156,9 +123,6 @@
     <t>Putra</t>
   </si>
   <si>
-    <t>Putro</t>
-  </si>
-  <si>
     <t>Saree</t>
   </si>
   <si>
@@ -171,9 +135,6 @@
     <t>Lhoksemawe</t>
   </si>
   <si>
-    <t>Lhok Setui</t>
-  </si>
-  <si>
     <t>0812XXXXXXXX</t>
   </si>
   <si>
@@ -189,14 +150,83 @@
     <t>putra@gmail.com</t>
   </si>
   <si>
-    <t>putro@gmail.com</t>
+    <t>Rahmad Dawood</t>
+  </si>
+  <si>
+    <t>Mahyus Ilyas</t>
+  </si>
+  <si>
+    <t>Alim Misbullah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zahnur </t>
+  </si>
+  <si>
+    <t>Laina Farsiah</t>
+  </si>
+  <si>
+    <t>0852XXXXXXXX</t>
+  </si>
+  <si>
+    <t>laina@gmail.com</t>
+  </si>
+  <si>
+    <t>zahnur@gmail.com</t>
+  </si>
+  <si>
+    <t>alim@gmail.com</t>
+  </si>
+  <si>
+    <t>rd@gmail.com</t>
+  </si>
+  <si>
+    <t>mahyus@gmail.com</t>
+  </si>
+  <si>
+    <t>Pengenalan Manajemen Proyek</t>
+  </si>
+  <si>
+    <t>Komunikasi yang Efektif</t>
+  </si>
+  <si>
+    <t>Database</t>
+  </si>
+  <si>
+    <t>Visualisasi Data</t>
+  </si>
+  <si>
+    <t>Cyber Security</t>
+  </si>
+  <si>
+    <t>Hadir</t>
+  </si>
+  <si>
+    <t>Izin</t>
+  </si>
+  <si>
+    <t>Sakit</t>
+  </si>
+  <si>
+    <t>Tabel Pelatihan</t>
+  </si>
+  <si>
+    <t>Tabel Pendaftaran</t>
+  </si>
+  <si>
+    <t>Tabel Narasumber</t>
+  </si>
+  <si>
+    <t>Tabel Presensi Peserta</t>
+  </si>
+  <si>
+    <t>Tabel Status</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -208,6 +238,21 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -227,7 +272,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -259,21 +304,86 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -576,374 +686,526 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:L34"/>
+  <dimension ref="B3:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="14.6640625" customWidth="1"/>
-    <col min="3" max="3" width="32.5546875" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" customWidth="1"/>
     <col min="4" max="4" width="16.21875" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" customWidth="1"/>
-    <col min="6" max="6" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" customWidth="1"/>
+    <col min="6" max="6" width="28.21875" customWidth="1"/>
+    <col min="7" max="7" width="17.21875" customWidth="1"/>
     <col min="8" max="8" width="17.77734375" customWidth="1"/>
     <col min="9" max="9" width="17.21875" customWidth="1"/>
     <col min="10" max="10" width="12.33203125" customWidth="1"/>
     <col min="11" max="11" width="13.5546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17" customWidth="1"/>
-    <col min="13" max="13" width="8.88671875" customWidth="1"/>
+    <col min="13" max="13" width="17.5546875" customWidth="1"/>
+    <col min="14" max="14" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
+    <row r="3" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B3" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
+      <c r="C3" s="8"/>
+    </row>
+    <row r="4" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B4" s="8" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
+      <c r="C4" s="8"/>
+    </row>
+    <row r="5" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B5" s="8" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
+      <c r="C5" s="8"/>
+    </row>
+    <row r="6" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B6" s="8" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
+      <c r="C6" s="8"/>
+    </row>
+    <row r="7" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B7" s="8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
+      <c r="C7" s="8"/>
+    </row>
+    <row r="9" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B9" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
+    <row r="10" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B10" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B11" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B13" s="5">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="6">
+        <v>44927</v>
+      </c>
+      <c r="F13" s="6">
+        <v>45076</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13" s="1">
+        <v>1</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N13" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B14" s="5">
+        <v>2</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="2" t="s">
+      <c r="E14" s="6">
+        <v>44959</v>
+      </c>
+      <c r="F14" s="6">
+        <v>45107</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" s="1">
+        <v>2</v>
+      </c>
+      <c r="J14" s="1">
+        <v>2</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M14" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B13" s="6">
-        <v>1</v>
-      </c>
-      <c r="C13" s="1" t="s">
+      <c r="N14" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B15" s="5">
+        <v>3</v>
+      </c>
+      <c r="C15" s="1">
+        <v>3</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="6">
+        <v>44988</v>
+      </c>
+      <c r="F15" s="6">
+        <v>45108</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I15" s="1">
+        <v>3</v>
+      </c>
+      <c r="J15" s="1">
+        <v>3</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N15" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B16" s="5">
+        <v>4</v>
+      </c>
+      <c r="C16" s="1">
+        <v>4</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="6">
+        <v>45020</v>
+      </c>
+      <c r="F16" s="6">
+        <v>45140</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I16" s="1">
+        <v>4</v>
+      </c>
+      <c r="J16" s="1">
+        <v>4</v>
+      </c>
+      <c r="K16" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="7">
-        <v>44927</v>
-      </c>
-      <c r="E13" s="7">
-        <v>45076</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H13" s="1">
-        <v>1</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="L13" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B14" s="6">
-        <v>2</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="7">
-        <v>44959</v>
-      </c>
-      <c r="E14" s="7">
-        <v>45107</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H14" s="1">
-        <v>2</v>
-      </c>
-      <c r="I14" s="1" t="s">
+      <c r="L16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N16" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="J14" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="L14" s="8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B15" s="6">
-        <v>3</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="7">
-        <v>44988</v>
-      </c>
-      <c r="E15" s="7">
-        <v>45108</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H15" s="1">
-        <v>3</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="L15" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B16" s="6">
-        <v>4</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="7">
-        <v>45020</v>
-      </c>
-      <c r="E16" s="7">
-        <v>45140</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H16" s="1">
-        <v>4</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="L16" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="1">
         <v>5</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="1">
+        <v>4</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="6">
+        <v>45051</v>
+      </c>
+      <c r="F17" s="6">
+        <v>45172</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I17" s="1">
+        <v>4</v>
+      </c>
+      <c r="J17" s="1">
+        <v>5</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L17" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="7">
-        <v>45051</v>
-      </c>
-      <c r="E17" s="7">
-        <v>45172</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H17" s="1">
-        <v>5</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="L17" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
+      <c r="M17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N17" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B19" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="H19" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="10"/>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B20" s="2" t="s">
+      <c r="D20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="H20" s="2" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="1">
         <v>1</v>
       </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H21" s="5">
+        <v>1</v>
+      </c>
+      <c r="I21" s="1">
+        <v>1</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K21" s="6">
+        <v>44931</v>
+      </c>
+      <c r="L21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="1">
         <v>2</v>
       </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H22" s="5">
+        <v>2</v>
+      </c>
+      <c r="I22" s="1">
+        <v>2</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K22" s="6">
+        <v>44969</v>
+      </c>
+      <c r="L22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="1">
         <v>3</v>
       </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C23" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H23" s="5">
+        <v>3</v>
+      </c>
+      <c r="I23" s="1">
+        <v>3</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K23" s="6">
+        <v>45005</v>
+      </c>
+      <c r="L23" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="1">
         <v>4</v>
       </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H24" s="5">
+        <v>4</v>
+      </c>
+      <c r="I24" s="1">
+        <v>4</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K24" s="6">
+        <v>45023</v>
+      </c>
+      <c r="L24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="1">
         <v>5</v>
       </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C25" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H25" s="1">
+        <v>5</v>
+      </c>
+      <c r="I25" s="1">
+        <v>5</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K25" s="6">
+        <v>45023</v>
+      </c>
+      <c r="L25" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -955,11 +1217,11 @@
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B27" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C27" s="4"/>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B27" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" s="12"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
@@ -969,12 +1231,12 @@
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="2" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
@@ -985,9 +1247,13 @@
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B29" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1</v>
+      </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
@@ -997,9 +1263,13 @@
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B30" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="1">
+        <v>2</v>
+      </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
@@ -1009,49 +1279,39 @@
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B31" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="1">
+        <v>3</v>
+      </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B33" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B34" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>26</v>
-      </c>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="I11:N11"/>
+  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="L13" r:id="rId1"/>
-    <hyperlink ref="L14" r:id="rId2"/>
-    <hyperlink ref="L15" r:id="rId3"/>
-    <hyperlink ref="L16" r:id="rId4"/>
-    <hyperlink ref="L17" r:id="rId5"/>
+    <hyperlink ref="N13" r:id="rId1"/>
+    <hyperlink ref="N14" r:id="rId2"/>
+    <hyperlink ref="N15" r:id="rId3"/>
+    <hyperlink ref="N16" r:id="rId4"/>
+    <hyperlink ref="E21" r:id="rId5"/>
+    <hyperlink ref="E22" r:id="rId6"/>
+    <hyperlink ref="E23" r:id="rId7"/>
+    <hyperlink ref="E24" r:id="rId8"/>
+    <hyperlink ref="E25" r:id="rId9"/>
+    <hyperlink ref="N17" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>
 
